--- a/src/endpoints/excel/event.xlsx
+++ b/src/endpoints/excel/event.xlsx
@@ -47,6 +47,18 @@
     <t xml:space="preserve">Sanction Registration Status</t>
   </si>
   <si>
+    <t xml:space="preserve">cha-cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitesse sandstorm cha-cha-twist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current</t>
+  </si>
+  <si>
     <t xml:space="preserve">ravenstar</t>
   </si>
   <si>
@@ -54,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">diane maiolino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current</t>
   </si>
 </sst>
 </file>
@@ -421,6 +430,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/endpoints/excel/event.xlsx
+++ b/src/endpoints/excel/event.xlsx
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve">diane maiolino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitesse sandstorm swift feet</t>
   </si>
 </sst>
 </file>
@@ -447,6 +453,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/endpoints/excel/event.xlsx
+++ b/src/endpoints/excel/event.xlsx
@@ -32,6 +32,12 @@
     <t xml:space="preserve">Registered Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Breed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -53,6 +59,12 @@
     <t xml:space="preserve">vitesse sandstorm cha-cha-twist</t>
   </si>
   <si>
+    <t xml:space="preserve">whuppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
     <t xml:space="preserve">don jenkins</t>
   </si>
   <si>
@@ -65,6 +77,18 @@
     <t xml:space="preserve">kentfield ravenstar</t>
   </si>
   <si>
+    <t xml:space="preserve">whippet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.942</t>
+  </si>
+  <si>
     <t xml:space="preserve">diane maiolino</t>
   </si>
   <si>
@@ -72,6 +96,27 @@
   </si>
   <si>
     <t xml:space="preserve">vitesse sandstorm swift feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swifty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whippity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d j</t>
   </si>
 </sst>
 </file>
@@ -418,56 +463,109 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2"/>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
